--- a/sector_analysis/top_support_affinity_matrix.xlsx
+++ b/sector_analysis/top_support_affinity_matrix.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27400" windowHeight="10680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27400" windowHeight="11720" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="top_support_affinity_matrix.csv" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Assoc_Rules_Matrix" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>GIS</t>
   </si>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>AXP</t>
-  </si>
-  <si>
-    <t>VNQI</t>
   </si>
   <si>
     <t>UPS</t>
@@ -86,18 +82,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -141,16 +129,15 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -488,1284 +475,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f t="array" ref="B3:B20">TRANSPOSE(C2:T2)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="array" ref="C4:C20">TRANSPOSE(D3:T3)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="array" ref="D5:D20">TRANSPOSE(E4:T4)</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="array" ref="F7:F20">TRANSPOSE(G6:T6)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="array" ref="G8:G20">TRANSPOSE(H7:T7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="array" ref="H9:H20">TRANSPOSE(I8:T8)</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="array" ref="I10:I20">TRANSPOSE(J9:T9)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="array" ref="J11:J20">TRANSPOSE(K10:T10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="array" ref="K12:K20">TRANSPOSE(L11:T11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="array" ref="L13:L20">TRANSPOSE(M12:T12)</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="array" ref="M14:M20">TRANSPOSE(N13:T13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="array" ref="N15:N20">TRANSPOSE(O14:T14)</f>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="array" ref="O16:O20">TRANSPOSE(P15:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="array" ref="P17:P20">TRANSPOSE(Q16:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f t="array" ref="Q18:Q20">TRANSPOSE(R17:T17)</f>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f t="array" ref="R19:R20">TRANSPOSE(S18:T18)</f>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f>T19</f>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1776,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1791,46 +500,46 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -2071,7 +780,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2130,7 +839,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2189,7 +898,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2248,7 +957,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2307,7 +1016,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2366,7 +1075,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2425,7 +1134,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2484,7 +1193,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2543,7 +1252,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2602,7 +1311,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2661,7 +1370,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2720,7 +1429,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2779,7 +1488,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2838,7 +1547,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>

--- a/sector_analysis/top_support_affinity_matrix.xlsx
+++ b/sector_analysis/top_support_affinity_matrix.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27400" windowHeight="11720" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="27400" windowHeight="15080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Assoc_Rules_Matrix" sheetId="2" r:id="rId1"/>
+    <sheet name="Sector_Analysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="54">
   <si>
     <t>GIS</t>
   </si>
@@ -77,12 +78,117 @@
   <si>
     <t>row.names</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Non-Cyclical Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Food Processing - NEC</t>
+  </si>
+  <si>
+    <t>Sanitary Products</t>
+  </si>
+  <si>
+    <t>Personal Products - NEC</t>
+  </si>
+  <si>
+    <t>Consumer Lending - NEC</t>
+  </si>
+  <si>
+    <t>Financials</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
+    <t>Air Freight &amp; Logistics - NEC</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals - NEC</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Industrial Conglomerates</t>
+  </si>
+  <si>
+    <t>Ground Freight &amp; Logistics - NEC</t>
+  </si>
+  <si>
+    <t>Food Retail &amp; Distribution - NEC</t>
+  </si>
+  <si>
+    <t>Cyclical Consumer Goods &amp; Services</t>
+  </si>
+  <si>
+    <t>Home Improvement Products &amp; Services Retailers - NEC</t>
+  </si>
+  <si>
+    <t>Life &amp; Health Insurance - NEC</t>
+  </si>
+  <si>
+    <t>Industrial Machinery &amp; Equipment - NEC</t>
+  </si>
+  <si>
+    <t>Electric Utilities - NEC</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Aerospace &amp; Defense - NEC</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Refining and Marketing - NEC</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Same Sector</t>
+  </si>
+  <si>
+    <t>Same Sector Rules</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Non-Rules</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>No Rule</t>
+  </si>
+  <si>
+    <t>Diff Sectors</t>
+  </si>
+  <si>
+    <t>Diff Sector</t>
+  </si>
+  <si>
+    <t>Same Sector Non-Rules</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +215,23 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -135,17 +258,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1606,6 +1767,4336 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>D4*(D$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:U24" si="0">E4*(E$1=$A4)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:U39" si="1">D5*(D$1=$A5)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:U39" si="2">G19*(G$1=$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:U41" si="3">D20*(D$1=$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D24:U41)/2</f>
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44">
+        <f>SUM(D48:U65)/2</f>
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <f>D44</f>
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f>G44</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="C45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <f>SUM(D4:U21)/2-D44</f>
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45">
+        <f>18*17/2-G44-D44-D45</f>
+        <v>115</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45">
+        <f>D45</f>
+        <v>7</v>
+      </c>
+      <c r="K45">
+        <f>G45</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>28</v>
+      </c>
+      <c r="R47" t="s">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s">
+        <v>28</v>
+      </c>
+      <c r="T47" t="s">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:U63" si="4">(1-E4)*(E$1=$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:S64" si="5">(1-D5)*(D$1=$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21">
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21">
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21">
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21">
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21">
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21">
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21">
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21">
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21">
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21">
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21">
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21">
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21">
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" ref="E64:U65" si="6">(1-U20)*(U$1=$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21">
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ref="D65:S65" si="7">(1-D21)*(D$1=$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
